--- a/data/trans_bre/P3A$yo-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P3A$yo-Estudios-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>23.83669639446767</v>
+        <v>24.50874839407403</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.4029584590801061</v>
+        <v>0.4109360650608823</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>32.92258258723093</v>
+        <v>33.24201539980788</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.6302415181302602</v>
+        <v>0.6315381237980239</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>27.39924121172701</v>
+        <v>27.39924121172704</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.4178824364358051</v>
+        <v>0.4178824364358057</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>24.58414952207377</v>
+        <v>24.52460909024432</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3597447076767299</v>
+        <v>0.3642486090744936</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>30.16061954187648</v>
+        <v>30.04585226984271</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4745207100199911</v>
+        <v>0.4752184043636346</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>17.90674862782511</v>
+        <v>17.90674862782512</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.2476122345049048</v>
+        <v>0.247612234504905</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>13.58593986512664</v>
+        <v>13.41208530131584</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.17920685116132</v>
+        <v>0.177149466186911</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.26240127174492</v>
+        <v>22.59761304370327</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.3216388050748781</v>
+        <v>0.3310323673638235</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>23.29122707281029</v>
+        <v>23.08379859463164</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3481860290560864</v>
+        <v>0.3427496539959135</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>27.51492694000787</v>
+        <v>27.34772092826917</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4319110087039265</v>
+        <v>0.4286333112014343</v>
       </c>
     </row>
     <row r="16">
